--- a/Prototypes/Barley/Observations/LUDF2015_16_Biomass.xlsx
+++ b/Prototypes/Barley/Observations/LUDF2015_16_Biomass.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
   <si>
     <t>SimulationName</t>
   </si>
@@ -72,18 +72,46 @@
   </si>
   <si>
     <t>HarvestRipe</t>
+  </si>
+  <si>
+    <t>ProfileN</t>
+  </si>
+  <si>
+    <t>Soil.SoilNitrogen.mineral_n(1)</t>
+  </si>
+  <si>
+    <t>Soil.SoilNitrogen.mineral_n(2)</t>
+  </si>
+  <si>
+    <t>Soil.SoilNitrogen.mineral_n(3)</t>
+  </si>
+  <si>
+    <t>Soil.SoilNitrogen.mineral_n(4)</t>
+  </si>
+  <si>
+    <t>Soil.SoilNitrogen.mineral_n(5)</t>
+  </si>
+  <si>
+    <t>Soil.SoilNitrogen.mineral_n(6)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -99,7 +127,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -107,14 +135,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,18 +446,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J21"/>
+      <selection activeCell="L1" sqref="L1:Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,378 +489,852 @@
       <c r="J1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1">
-        <v>42314</v>
-      </c>
-      <c r="C2">
-        <v>2.4872399999999995</v>
-      </c>
-      <c r="D2">
-        <v>45.499999999999993</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B2" s="3">
+        <v>42283</v>
+      </c>
+      <c r="K2" s="2">
+        <v>60.706918387766159</v>
+      </c>
+      <c r="L2" s="4">
+        <v>18.957931212329459</v>
+      </c>
+      <c r="M2" s="4">
+        <v>22.770609791196428</v>
+      </c>
+      <c r="N2" s="4">
+        <v>18.978377384240268</v>
+      </c>
+      <c r="O2" s="4">
+        <v>14.772800599308624</v>
+      </c>
+      <c r="P2" s="4">
+        <v>13.993455527314701</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>7.372052067516135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1">
-        <v>42333</v>
+      <c r="B3" s="3">
+        <v>42314</v>
       </c>
       <c r="C3">
-        <v>5.8449462499999996</v>
+        <v>2.4872399999999995</v>
       </c>
       <c r="D3">
-        <v>214.24999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45.499999999999993</v>
+      </c>
+      <c r="K3">
+        <v>66.222633643682386</v>
+      </c>
+      <c r="L3" s="4">
+        <v>23.141105560609397</v>
+      </c>
+      <c r="M3" s="4">
+        <v>28.858876380120833</v>
+      </c>
+      <c r="N3" s="4">
+        <v>14.222651702952152</v>
+      </c>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
+        <v>42333</v>
+      </c>
+      <c r="C4">
+        <v>5.8449462499999996</v>
+      </c>
+      <c r="D4">
+        <v>214.24999999999997</v>
+      </c>
+      <c r="K4">
+        <v>45.912824102207772</v>
+      </c>
+      <c r="L4" s="4">
+        <v>32.929000397050906</v>
+      </c>
+      <c r="M4" s="4">
+        <v>5.3733031688458928</v>
+      </c>
+      <c r="N4" s="4">
+        <v>7.6105205363109736</v>
+      </c>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3">
         <v>42354</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>11.292077179298243</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>657.29744180962803</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="K5">
+        <v>51.747830862947396</v>
+      </c>
+      <c r="L5" s="4">
+        <v>40.594730418664284</v>
+      </c>
+      <c r="M5" s="4">
+        <v>6.3263789214205257</v>
+      </c>
+      <c r="N5" s="4">
+        <v>4.8267215228625862</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3">
+        <v>42410</v>
+      </c>
+      <c r="C6">
+        <v>18.136213518920179</v>
+      </c>
+      <c r="D6">
+        <v>1118.5117529506649</v>
+      </c>
+      <c r="E6">
+        <v>4.6344899999999994E-2</v>
+      </c>
+      <c r="F6">
+        <v>14336.004447091267</v>
+      </c>
+      <c r="G6">
+        <v>664.40069249999999</v>
+      </c>
+      <c r="H6">
+        <v>2.281E-2</v>
+      </c>
+      <c r="I6">
+        <v>15.154979795925</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <v>26.819928533834414</v>
+      </c>
+      <c r="L6" s="4">
+        <v>12.276673563531348</v>
+      </c>
+      <c r="M6" s="4">
+        <v>8.0700317873924021</v>
+      </c>
+      <c r="N6" s="4">
+        <v>6.4732231829106652</v>
+      </c>
+      <c r="O6" s="4">
+        <v>4.9345623291701664</v>
+      </c>
+      <c r="P6" s="4">
+        <v>3.9232676886306486</v>
+      </c>
+      <c r="Q6" s="4"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>42283</v>
+      </c>
+      <c r="K7">
+        <v>63.428539810937806</v>
+      </c>
+      <c r="L7" s="4">
+        <v>22.758798621476451</v>
+      </c>
+      <c r="M7" s="4">
+        <v>26.903783410334043</v>
+      </c>
+      <c r="N7" s="4">
+        <v>13.765957779127312</v>
+      </c>
+      <c r="O7" s="4">
+        <v>11.82931134020615</v>
+      </c>
+      <c r="P7" s="4">
+        <v>9.7424432622934525</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>7.1283249602598611</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B8" s="3">
         <v>42314</v>
       </c>
-      <c r="C5">
+      <c r="C8">
         <v>2.0891525</v>
       </c>
-      <c r="D5">
+      <c r="D8">
         <v>38.125</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="K8">
+        <v>54.198163335627072</v>
+      </c>
+      <c r="L8" s="4">
+        <v>15.915527811662386</v>
+      </c>
+      <c r="M8" s="4">
+        <v>24.39796625230808</v>
+      </c>
+      <c r="N8" s="4">
+        <v>13.884669271656605</v>
+      </c>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B9" s="3">
         <v>42333</v>
       </c>
-      <c r="C6">
+      <c r="C9">
         <v>5.7384337499999996</v>
       </c>
-      <c r="D6">
+      <c r="D9">
         <v>212.875</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="K9">
+        <v>81.541968606943726</v>
+      </c>
+      <c r="L9" s="4">
+        <v>43.470047469912451</v>
+      </c>
+      <c r="M9" s="4">
+        <v>14.71012001193246</v>
+      </c>
+      <c r="N9" s="4">
+        <v>23.361801125098822</v>
+      </c>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B10" s="3">
         <v>42354</v>
       </c>
-      <c r="C7">
+      <c r="C10">
         <v>11.310208610413373</v>
       </c>
-      <c r="D7">
+      <c r="D10">
         <v>606.27950389789692</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="K10">
+        <v>50.232598639275807</v>
+      </c>
+      <c r="L10" s="4">
+        <v>40.980957388602363</v>
+      </c>
+      <c r="M10" s="4">
+        <v>4.9974973065471149</v>
+      </c>
+      <c r="N10" s="4">
+        <v>4.2541439441263238</v>
+      </c>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>42410</v>
+      </c>
+      <c r="C11">
+        <v>17.145615128488163</v>
+      </c>
+      <c r="D11">
+        <v>963.05543587298496</v>
+      </c>
+      <c r="E11">
+        <v>4.4157128125000007E-2</v>
+      </c>
+      <c r="F11">
+        <v>12276.142392355818</v>
+      </c>
+      <c r="G11">
+        <v>542.07919249999998</v>
+      </c>
+      <c r="H11">
+        <v>2.4944999999999998E-2</v>
+      </c>
+      <c r="I11">
+        <v>13.522165456912498</v>
+      </c>
+      <c r="J11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11">
+        <v>59.051572591122714</v>
+      </c>
+      <c r="L11" s="4">
+        <v>28.859751651405031</v>
+      </c>
+      <c r="M11" s="4">
+        <v>20.551528693831351</v>
+      </c>
+      <c r="N11" s="4">
+        <v>9.640292245886334</v>
+      </c>
+      <c r="O11" s="4">
+        <v>14.678448763443496</v>
+      </c>
+      <c r="P11" s="4">
+        <v>5.9432762985288177</v>
+      </c>
+      <c r="Q11" s="4"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>42283</v>
+      </c>
+      <c r="K12">
+        <v>67.628744888712518</v>
+      </c>
+      <c r="L12" s="4">
+        <v>22.18549226536215</v>
+      </c>
+      <c r="M12" s="4">
+        <v>29.990501972697984</v>
+      </c>
+      <c r="N12" s="4">
+        <v>15.452750650652378</v>
+      </c>
+      <c r="O12" s="4">
+        <v>9.4724973777099315</v>
+      </c>
+      <c r="P12" s="4">
+        <v>7.3796701886414118</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>8.1233557713404743</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B13" s="3">
         <v>42314</v>
       </c>
-      <c r="C8">
+      <c r="C13">
         <v>2.2527249999999999</v>
       </c>
-      <c r="D8">
+      <c r="D13">
         <v>40.625</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="K13">
+        <v>61.992990972169721</v>
+      </c>
+      <c r="L13" s="4">
+        <v>22.380576690502668</v>
+      </c>
+      <c r="M13" s="4">
+        <v>26.071777038852581</v>
+      </c>
+      <c r="N13" s="4">
+        <v>13.540637242814467</v>
+      </c>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B14" s="3">
         <v>42333</v>
       </c>
-      <c r="C9">
+      <c r="C14">
         <v>6.696182499999999</v>
       </c>
-      <c r="D9">
+      <c r="D14">
         <v>269.00000000000006</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="K14">
+        <v>19.856435221982352</v>
+      </c>
+      <c r="L14" s="4">
+        <v>8.5580135625266749</v>
+      </c>
+      <c r="M14" s="4">
+        <v>5.9158872744471935</v>
+      </c>
+      <c r="N14" s="4">
+        <v>5.3825343850084835</v>
+      </c>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B15" s="3">
         <v>42354</v>
       </c>
-      <c r="C10">
+      <c r="C15">
         <v>7.8302601080752883</v>
       </c>
-      <c r="D10">
+      <c r="D15">
         <v>570.76381247097515</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="K15">
+        <v>19.219697475527195</v>
+      </c>
+      <c r="L15" s="4">
+        <v>10.716609228016567</v>
+      </c>
+      <c r="M15" s="4">
+        <v>2.9715594873261084</v>
+      </c>
+      <c r="N15" s="4">
+        <v>5.5315287601845178</v>
+      </c>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="3">
+        <v>42410</v>
+      </c>
+      <c r="C16">
+        <v>13.109893539021446</v>
+      </c>
+      <c r="D16">
+        <v>961.76634133769187</v>
+      </c>
+      <c r="E16">
+        <v>4.8762E-2</v>
+      </c>
+      <c r="F16">
+        <v>11889.328934416144</v>
+      </c>
+      <c r="G16">
+        <v>579.7474575</v>
+      </c>
+      <c r="H16">
+        <v>1.8929999999999999E-2</v>
+      </c>
+      <c r="I16">
+        <v>10.974619370474999</v>
+      </c>
+      <c r="J16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16">
+        <v>23.347345267767423</v>
+      </c>
+      <c r="L16" s="4">
+        <v>10.90247695594261</v>
+      </c>
+      <c r="M16" s="4">
+        <v>8.9919142145465898</v>
+      </c>
+      <c r="N16" s="4">
+        <v>3.452954097278222</v>
+      </c>
+      <c r="O16" s="4">
+        <v>3.5213364019845179</v>
+      </c>
+      <c r="P16" s="4">
+        <v>3.3240302653859408</v>
+      </c>
+      <c r="Q16" s="4"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>42283</v>
+      </c>
+      <c r="K17">
+        <v>70.34926122375721</v>
+      </c>
+      <c r="L17" s="4">
+        <v>23.883387451596384</v>
+      </c>
+      <c r="M17" s="4">
+        <v>27.184822022960688</v>
+      </c>
+      <c r="N17" s="4">
+        <v>19.281051749200138</v>
+      </c>
+      <c r="O17" s="4">
+        <v>18.663672945617183</v>
+      </c>
+      <c r="P17" s="4">
+        <v>13.348707147765676</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>8.1543994222852696</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B18" s="3">
         <v>42314</v>
       </c>
-      <c r="C11">
+      <c r="C18">
         <v>2.3652025000000001</v>
       </c>
-      <c r="D11">
+      <c r="D18">
         <v>42.500000000000007</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1">
-        <v>42333</v>
-      </c>
-      <c r="C12">
-        <v>7.8671175000000009</v>
-      </c>
-      <c r="D12">
-        <v>254.12499999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>42354</v>
-      </c>
-      <c r="C13">
-        <v>11.492713263531723</v>
-      </c>
-      <c r="D13">
-        <v>646.08993674660735</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>42314</v>
-      </c>
-      <c r="C14">
-        <v>2.9709087500000004</v>
-      </c>
-      <c r="D14">
-        <v>54.125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1">
-        <v>42333</v>
-      </c>
-      <c r="C15">
-        <v>7.109836249999999</v>
-      </c>
-      <c r="D15">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="1">
-        <v>42354</v>
-      </c>
-      <c r="C16">
-        <v>7.1690956974506523</v>
-      </c>
-      <c r="D16">
-        <v>644.24230687503734</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="2">
-        <v>42410</v>
-      </c>
-      <c r="C17">
-        <v>9.4164407333011315</v>
-      </c>
-      <c r="D17">
-        <v>875.25402176137868</v>
-      </c>
-      <c r="E17">
-        <v>4.7279548125000001E-2</v>
-      </c>
-      <c r="F17">
-        <v>12043.038958295881</v>
-      </c>
-      <c r="G17">
-        <v>569.38944000000004</v>
-      </c>
-      <c r="H17">
-        <v>1.42725E-2</v>
-      </c>
-      <c r="I17">
-        <v>8.1266107824000002</v>
-      </c>
-      <c r="J17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="2">
-        <v>42411</v>
-      </c>
-      <c r="C18">
-        <v>13.109893539021446</v>
-      </c>
-      <c r="D18">
-        <v>961.76634133769187</v>
-      </c>
-      <c r="E18">
-        <v>4.8762E-2</v>
-      </c>
-      <c r="F18">
-        <v>11889.328934416144</v>
-      </c>
-      <c r="G18">
-        <v>579.7474575</v>
-      </c>
-      <c r="H18">
-        <v>1.8929999999999999E-2</v>
-      </c>
-      <c r="I18">
-        <v>10.974619370474999</v>
-      </c>
-      <c r="J18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <v>69.347495342973616</v>
+      </c>
+      <c r="L18" s="4">
+        <v>19.800691204959204</v>
+      </c>
+      <c r="M18" s="4">
+        <v>35.052920575200766</v>
+      </c>
+      <c r="N18" s="4">
+        <v>14.493883562813654</v>
+      </c>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="2">
-        <v>42412</v>
+      <c r="B19" s="3">
+        <v>42333</v>
       </c>
       <c r="C19">
+        <v>7.8671175000000009</v>
+      </c>
+      <c r="D19">
+        <v>254.12499999999997</v>
+      </c>
+      <c r="K19">
+        <v>39.226004381038678</v>
+      </c>
+      <c r="L19" s="4">
+        <v>13.73318398937699</v>
+      </c>
+      <c r="M19" s="4">
+        <v>11.472259526379174</v>
+      </c>
+      <c r="N19" s="4">
+        <v>14.020560865282516</v>
+      </c>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="3">
+        <v>42354</v>
+      </c>
+      <c r="C20">
+        <v>11.492713263531723</v>
+      </c>
+      <c r="D20">
+        <v>646.08993674660735</v>
+      </c>
+      <c r="K20">
+        <v>43.969135962570711</v>
+      </c>
+      <c r="L20" s="4">
+        <v>32.461113447489545</v>
+      </c>
+      <c r="M20" s="4">
+        <v>5.5748027570369301</v>
+      </c>
+      <c r="N20" s="4">
+        <v>5.9332197580442374</v>
+      </c>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3">
+        <v>42410</v>
+      </c>
+      <c r="C21">
         <v>16.678048531202325</v>
       </c>
-      <c r="D19">
+      <c r="D21">
         <v>1086.6727322786116</v>
       </c>
-      <c r="E19">
+      <c r="E21">
         <v>4.6444342500000006E-2</v>
       </c>
-      <c r="F19">
+      <c r="F21">
         <v>13185.666639591245</v>
       </c>
-      <c r="G19">
+      <c r="G21">
         <v>612.39961749999998</v>
       </c>
-      <c r="H19">
+      <c r="H21">
         <v>2.2039999999999997E-2</v>
       </c>
-      <c r="I19">
+      <c r="I21">
         <v>13.497287569699997</v>
-      </c>
-      <c r="J19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="2">
-        <v>42413</v>
-      </c>
-      <c r="C20">
-        <v>18.136213518920179</v>
-      </c>
-      <c r="D20">
-        <v>1118.5117529506649</v>
-      </c>
-      <c r="E20">
-        <v>4.6344899999999994E-2</v>
-      </c>
-      <c r="F20">
-        <v>14336.004447091267</v>
-      </c>
-      <c r="G20">
-        <v>664.40069249999999</v>
-      </c>
-      <c r="H20">
-        <v>2.281E-2</v>
-      </c>
-      <c r="I20">
-        <v>15.154979795925</v>
-      </c>
-      <c r="J20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="2">
-        <v>42414</v>
-      </c>
-      <c r="C21">
-        <v>17.145615128488163</v>
-      </c>
-      <c r="D21">
-        <v>963.05543587298496</v>
-      </c>
-      <c r="E21">
-        <v>4.4157128125000007E-2</v>
-      </c>
-      <c r="F21">
-        <v>12276.142392355818</v>
-      </c>
-      <c r="G21">
-        <v>542.07919249999998</v>
-      </c>
-      <c r="H21">
-        <v>2.4944999999999998E-2</v>
-      </c>
-      <c r="I21">
-        <v>13.522165456912498</v>
       </c>
       <c r="J21" t="s">
         <v>15</v>
       </c>
+      <c r="K21">
+        <v>19.874847900416071</v>
+      </c>
+      <c r="L21" s="4">
+        <v>9.4267449774011354</v>
+      </c>
+      <c r="M21" s="4">
+        <v>6.5406190026910238</v>
+      </c>
+      <c r="N21" s="4">
+        <v>3.9074839203239109</v>
+      </c>
+      <c r="O21" s="4">
+        <v>3.718808911518928</v>
+      </c>
+      <c r="P21" s="4">
+        <v>4.0485664012387961</v>
+      </c>
+      <c r="Q21" s="4"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
+        <v>42283</v>
+      </c>
+      <c r="K22">
+        <v>64.620976659312717</v>
+      </c>
+      <c r="L22" s="4">
+        <v>21.2062423564184</v>
+      </c>
+      <c r="M22" s="4">
+        <v>25.244053934477879</v>
+      </c>
+      <c r="N22" s="4">
+        <v>18.170680368416441</v>
+      </c>
+      <c r="O22" s="4">
+        <v>18.049569203265868</v>
+      </c>
+      <c r="P22" s="4">
+        <v>11.222870953243119</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>7.3137263903336116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="3">
+        <v>42314</v>
+      </c>
+      <c r="C23">
+        <v>2.9709087500000004</v>
+      </c>
+      <c r="D23">
+        <v>54.125</v>
+      </c>
+      <c r="K23">
+        <v>65.987328447663046</v>
+      </c>
+      <c r="L23" s="4">
+        <v>22.060992250598456</v>
+      </c>
+      <c r="M23" s="4">
+        <v>31.6179988145484</v>
+      </c>
+      <c r="N23" s="4">
+        <v>12.308337382516182</v>
+      </c>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="3">
+        <v>42333</v>
+      </c>
+      <c r="C24">
+        <v>7.109836249999999</v>
+      </c>
+      <c r="D24">
+        <v>302</v>
+      </c>
+      <c r="K24">
+        <v>15.871933562443337</v>
+      </c>
+      <c r="L24" s="4">
+        <v>6.0604622837272943</v>
+      </c>
+      <c r="M24" s="4">
+        <v>5.8650516393054248</v>
+      </c>
+      <c r="N24" s="4">
+        <v>3.9464196394106175</v>
+      </c>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="3">
+        <v>42354</v>
+      </c>
+      <c r="C25">
+        <v>7.1690956974506523</v>
+      </c>
+      <c r="D25">
+        <v>644.24230687503734</v>
+      </c>
+      <c r="K25">
+        <v>12.657128710943184</v>
+      </c>
+      <c r="L25" s="4">
+        <v>4.4792307193361571</v>
+      </c>
+      <c r="M25" s="4">
+        <v>3.4089999467699794</v>
+      </c>
+      <c r="N25" s="4">
+        <v>4.768898044837047</v>
+      </c>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="3">
+        <v>42410</v>
+      </c>
+      <c r="C26">
+        <v>9.4164407333011315</v>
+      </c>
+      <c r="D26">
+        <v>875.25402176137868</v>
+      </c>
+      <c r="E26">
+        <v>4.7279548125000001E-2</v>
+      </c>
+      <c r="F26">
+        <v>12043.038958295881</v>
+      </c>
+      <c r="G26">
+        <v>569.38944000000004</v>
+      </c>
+      <c r="H26">
+        <v>1.42725E-2</v>
+      </c>
+      <c r="I26">
+        <v>8.1266107824000002</v>
+      </c>
+      <c r="J26" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26">
+        <v>29.258927881776657</v>
+      </c>
+      <c r="L26" s="4">
+        <v>12.945581881612643</v>
+      </c>
+      <c r="M26" s="4">
+        <v>12.948894845800501</v>
+      </c>
+      <c r="N26" s="4">
+        <v>3.364451154363516</v>
+      </c>
+      <c r="O26" s="4">
+        <v>3.0856698287091864</v>
+      </c>
+      <c r="P26" s="4">
+        <v>4.5999428510162392</v>
+      </c>
+      <c r="Q26" s="4"/>
     </row>
   </sheetData>
+  <sortState ref="A2:J21">
+    <sortCondition descending="1" ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>